--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,81 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7892,22 +7967,22 @@
         <v>167</v>
       </c>
       <c r="B153">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="C153">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D153">
         <v>0.02</v>
       </c>
       <c r="E153">
-        <v>-0.45</v>
+        <v>-0.49</v>
       </c>
       <c r="G153">
         <v>3.17</v>
       </c>
       <c r="H153">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="J153">
         <v>6.86</v>
@@ -7916,10 +7991,1179 @@
         <v>1.54</v>
       </c>
       <c r="L153">
+        <v>6.08</v>
+      </c>
+      <c r="M153">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="O153">
+        <v>6.89</v>
+      </c>
+      <c r="P153">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154">
+        <v>1.17</v>
+      </c>
+      <c r="C154">
+        <v>0.52</v>
+      </c>
+      <c r="D154">
+        <v>0.01</v>
+      </c>
+      <c r="E154">
+        <v>-0.48</v>
+      </c>
+      <c r="G154">
+        <v>3.17</v>
+      </c>
+      <c r="H154">
+        <v>1.67</v>
+      </c>
+      <c r="I154">
+        <v>1.66</v>
+      </c>
+      <c r="J154">
+        <v>6.89</v>
+      </c>
+      <c r="K154">
+        <v>1.53</v>
+      </c>
+      <c r="L154">
+        <v>6.08</v>
+      </c>
+      <c r="M154">
+        <v>9.57</v>
+      </c>
+      <c r="O154">
+        <v>6.92</v>
+      </c>
+      <c r="P154">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155">
+        <v>1.18</v>
+      </c>
+      <c r="C155">
+        <v>0.51</v>
+      </c>
+      <c r="D155">
+        <v>0.01</v>
+      </c>
+      <c r="E155">
+        <v>-0.5</v>
+      </c>
+      <c r="G155">
+        <v>3.17</v>
+      </c>
+      <c r="H155">
+        <v>1.73</v>
+      </c>
+      <c r="I155">
+        <v>1.66</v>
+      </c>
+      <c r="J155">
+        <v>6.92</v>
+      </c>
+      <c r="K155">
+        <v>1.47</v>
+      </c>
+      <c r="L155">
+        <v>6.14</v>
+      </c>
+      <c r="M155">
+        <v>9.59</v>
+      </c>
+      <c r="O155">
+        <v>6.95</v>
+      </c>
+      <c r="P155">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156">
+        <v>1.22</v>
+      </c>
+      <c r="C156">
+        <v>0.52</v>
+      </c>
+      <c r="D156">
+        <v>0.01</v>
+      </c>
+      <c r="E156">
+        <v>-0.5</v>
+      </c>
+      <c r="G156">
+        <v>3.18</v>
+      </c>
+      <c r="H156">
+        <v>1.73</v>
+      </c>
+      <c r="I156">
+        <v>1.66</v>
+      </c>
+      <c r="J156">
+        <v>6.92</v>
+      </c>
+      <c r="K156">
+        <v>1.44</v>
+      </c>
+      <c r="L156">
+        <v>6.19</v>
+      </c>
+      <c r="M156">
+        <v>9.94</v>
+      </c>
+      <c r="O156">
+        <v>6.98</v>
+      </c>
+      <c r="P156">
         <v>6.04</v>
       </c>
-      <c r="O153">
-        <v>6.85</v>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157">
+        <v>1.3</v>
+      </c>
+      <c r="C157">
+        <v>0.61</v>
+      </c>
+      <c r="D157">
+        <v>0.02</v>
+      </c>
+      <c r="E157">
+        <v>-0.46</v>
+      </c>
+      <c r="G157">
+        <v>3.2</v>
+      </c>
+      <c r="H157">
+        <v>1.79</v>
+      </c>
+      <c r="I157">
+        <v>1.67</v>
+      </c>
+      <c r="J157">
+        <v>6.93</v>
+      </c>
+      <c r="K157">
+        <v>1.46</v>
+      </c>
+      <c r="L157">
+        <v>6.27</v>
+      </c>
+      <c r="M157">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="O157">
+        <v>7.03</v>
+      </c>
+      <c r="P157">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158">
+        <v>1.33</v>
+      </c>
+      <c r="C158">
+        <v>0.58</v>
+      </c>
+      <c r="D158">
+        <v>0.02</v>
+      </c>
+      <c r="E158">
+        <v>-0.46</v>
+      </c>
+      <c r="F158">
+        <v>1.93</v>
+      </c>
+      <c r="G158">
+        <v>3.22</v>
+      </c>
+      <c r="H158">
+        <v>1.79</v>
+      </c>
+      <c r="J158">
+        <v>6.98</v>
+      </c>
+      <c r="K158">
+        <v>1.51</v>
+      </c>
+      <c r="L158">
+        <v>6.32</v>
+      </c>
+      <c r="M158">
+        <v>10.07</v>
+      </c>
+      <c r="O158">
+        <v>7.04</v>
+      </c>
+      <c r="P158">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159">
+        <v>1.35</v>
+      </c>
+      <c r="C159">
+        <v>0.59</v>
+      </c>
+      <c r="D159">
+        <v>0.03</v>
+      </c>
+      <c r="E159">
+        <v>-0.46</v>
+      </c>
+      <c r="F159">
+        <v>1.93</v>
+      </c>
+      <c r="H159">
+        <v>1.8</v>
+      </c>
+      <c r="I159">
+        <v>1.68</v>
+      </c>
+      <c r="J159">
+        <v>6.98</v>
+      </c>
+      <c r="K159">
+        <v>1.51</v>
+      </c>
+      <c r="L159">
+        <v>6.33</v>
+      </c>
+      <c r="M159">
+        <v>10.01</v>
+      </c>
+      <c r="O159">
+        <v>7.06</v>
+      </c>
+      <c r="P159">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160">
+        <v>1.33</v>
+      </c>
+      <c r="C160">
+        <v>0.57</v>
+      </c>
+      <c r="D160">
+        <v>0.04</v>
+      </c>
+      <c r="E160">
+        <v>-0.46</v>
+      </c>
+      <c r="F160">
+        <v>1.94</v>
+      </c>
+      <c r="G160">
+        <v>3.25</v>
+      </c>
+      <c r="H160">
+        <v>1.79</v>
+      </c>
+      <c r="I160">
+        <v>1.76</v>
+      </c>
+      <c r="J160">
+        <v>6.99</v>
+      </c>
+      <c r="K160">
+        <v>1.54</v>
+      </c>
+      <c r="L160">
+        <v>6.36</v>
+      </c>
+      <c r="M160">
+        <v>10.13</v>
+      </c>
+      <c r="O160">
+        <v>7.02</v>
+      </c>
+      <c r="P160">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161">
+        <v>1.36</v>
+      </c>
+      <c r="C161">
+        <v>0.6</v>
+      </c>
+      <c r="D161">
+        <v>0.03</v>
+      </c>
+      <c r="E161">
+        <v>-0.46</v>
+      </c>
+      <c r="F161">
+        <v>1.94</v>
+      </c>
+      <c r="G161">
+        <v>3.21</v>
+      </c>
+      <c r="H161">
+        <v>1.79</v>
+      </c>
+      <c r="I161">
+        <v>1.8</v>
+      </c>
+      <c r="J161">
+        <v>6.99</v>
+      </c>
+      <c r="L161">
+        <v>6.27</v>
+      </c>
+      <c r="M161">
+        <v>10.23</v>
+      </c>
+      <c r="O161">
+        <v>6.98</v>
+      </c>
+      <c r="P161">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162">
+        <v>1.28</v>
+      </c>
+      <c r="C162">
+        <v>0.57</v>
+      </c>
+      <c r="D162">
+        <v>0.03</v>
+      </c>
+      <c r="E162">
+        <v>-0.47</v>
+      </c>
+      <c r="F162">
+        <v>1.95</v>
+      </c>
+      <c r="G162">
+        <v>3.22</v>
+      </c>
+      <c r="H162">
+        <v>1.77</v>
+      </c>
+      <c r="I162">
+        <v>1.81</v>
+      </c>
+      <c r="J162">
+        <v>6.95</v>
+      </c>
+      <c r="K162">
+        <v>1.53</v>
+      </c>
+      <c r="L162">
+        <v>6.18</v>
+      </c>
+      <c r="M162">
+        <v>10.38</v>
+      </c>
+      <c r="N162">
+        <v>7.36</v>
+      </c>
+      <c r="O162">
+        <v>6.95</v>
+      </c>
+      <c r="P162">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
+        <v>177</v>
+      </c>
+      <c r="B163">
+        <v>1.27</v>
+      </c>
+      <c r="C163">
+        <v>0.57</v>
+      </c>
+      <c r="D163">
+        <v>0.02</v>
+      </c>
+      <c r="E163">
+        <v>-0.47</v>
+      </c>
+      <c r="G163">
+        <v>3.22</v>
+      </c>
+      <c r="H163">
+        <v>1.71</v>
+      </c>
+      <c r="J163">
+        <v>6.88</v>
+      </c>
+      <c r="K163">
+        <v>1.51</v>
+      </c>
+      <c r="L163">
+        <v>6.13</v>
+      </c>
+      <c r="M163">
+        <v>10.56</v>
+      </c>
+      <c r="O163">
+        <v>7.05</v>
+      </c>
+      <c r="P163">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164">
+        <v>1.26</v>
+      </c>
+      <c r="C164">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D164">
+        <v>0.02</v>
+      </c>
+      <c r="E164">
+        <v>-0.47</v>
+      </c>
+      <c r="F164">
+        <v>1.89</v>
+      </c>
+      <c r="G164">
+        <v>3.21</v>
+      </c>
+      <c r="H164">
+        <v>1.7</v>
+      </c>
+      <c r="I164">
+        <v>1.8</v>
+      </c>
+      <c r="J164">
+        <v>6.88</v>
+      </c>
+      <c r="K164">
+        <v>1.52</v>
+      </c>
+      <c r="L164">
+        <v>6.11</v>
+      </c>
+      <c r="M164">
+        <v>10.72</v>
+      </c>
+      <c r="N164">
+        <v>7.32</v>
+      </c>
+      <c r="O164">
+        <v>7.04</v>
+      </c>
+      <c r="P164">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165">
+        <v>1.26</v>
+      </c>
+      <c r="C165">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D165">
+        <v>0.02</v>
+      </c>
+      <c r="E165">
+        <v>-0.48</v>
+      </c>
+      <c r="F165">
+        <v>1.9</v>
+      </c>
+      <c r="G165">
+        <v>3.25</v>
+      </c>
+      <c r="H165">
+        <v>1.71</v>
+      </c>
+      <c r="I165">
+        <v>1.8</v>
+      </c>
+      <c r="J165">
+        <v>6.89</v>
+      </c>
+      <c r="K165">
+        <v>1.53</v>
+      </c>
+      <c r="L165">
+        <v>6.14</v>
+      </c>
+      <c r="M165">
+        <v>11.05</v>
+      </c>
+      <c r="N165">
+        <v>7.38</v>
+      </c>
+      <c r="O165">
+        <v>7.02</v>
+      </c>
+      <c r="P165">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166">
+        <v>1.24</v>
+      </c>
+      <c r="C166">
+        <v>0.54</v>
+      </c>
+      <c r="D166">
+        <v>0.02</v>
+      </c>
+      <c r="E166">
+        <v>-0.49</v>
+      </c>
+      <c r="F166">
+        <v>1.88</v>
+      </c>
+      <c r="G166">
+        <v>3.23</v>
+      </c>
+      <c r="H166">
+        <v>1.69</v>
+      </c>
+      <c r="I166">
+        <v>1.8</v>
+      </c>
+      <c r="J166">
+        <v>6.96</v>
+      </c>
+      <c r="K166">
+        <v>1.53</v>
+      </c>
+      <c r="L166">
+        <v>6.19</v>
+      </c>
+      <c r="M166">
+        <v>10.77</v>
+      </c>
+      <c r="N166">
+        <v>7.39</v>
+      </c>
+      <c r="O166">
+        <v>7.04</v>
+      </c>
+      <c r="P166">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167">
+        <v>1.26</v>
+      </c>
+      <c r="C167">
+        <v>0.52</v>
+      </c>
+      <c r="D167">
+        <v>0.01</v>
+      </c>
+      <c r="E167">
+        <v>-0.5</v>
+      </c>
+      <c r="F167">
+        <v>1.88</v>
+      </c>
+      <c r="G167">
+        <v>3.22</v>
+      </c>
+      <c r="H167">
+        <v>1.68</v>
+      </c>
+      <c r="I167">
+        <v>1.79</v>
+      </c>
+      <c r="J167">
+        <v>6.94</v>
+      </c>
+      <c r="K167">
+        <v>1.52</v>
+      </c>
+      <c r="L167">
+        <v>6.18</v>
+      </c>
+      <c r="M167">
+        <v>10.61</v>
+      </c>
+      <c r="N167">
+        <v>7.4</v>
+      </c>
+      <c r="O167">
+        <v>7.02</v>
+      </c>
+      <c r="P167">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168">
+        <v>1.25</v>
+      </c>
+      <c r="C168">
+        <v>0.53</v>
+      </c>
+      <c r="D168">
+        <v>0.02</v>
+      </c>
+      <c r="E168">
+        <v>-0.48</v>
+      </c>
+      <c r="G168">
+        <v>3.22</v>
+      </c>
+      <c r="H168">
+        <v>1.72</v>
+      </c>
+      <c r="J168">
+        <v>6.96</v>
+      </c>
+      <c r="K168">
+        <v>1.56</v>
+      </c>
+      <c r="L168">
+        <v>6.16</v>
+      </c>
+      <c r="M168">
+        <v>10.83</v>
+      </c>
+      <c r="N168">
+        <v>7.36</v>
+      </c>
+      <c r="O168">
+        <v>6.97</v>
+      </c>
+      <c r="P168">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169">
+        <v>1.3</v>
+      </c>
+      <c r="C169">
+        <v>0.54</v>
+      </c>
+      <c r="D169">
+        <v>0.02</v>
+      </c>
+      <c r="E169">
+        <v>-0.48</v>
+      </c>
+      <c r="G169">
+        <v>3.22</v>
+      </c>
+      <c r="H169">
+        <v>1.73</v>
+      </c>
+      <c r="I169">
+        <v>1.79</v>
+      </c>
+      <c r="J169">
+        <v>6.99</v>
+      </c>
+      <c r="K169">
+        <v>1.58</v>
+      </c>
+      <c r="L169">
+        <v>6.08</v>
+      </c>
+      <c r="M169">
+        <v>10.58</v>
+      </c>
+      <c r="N169">
+        <v>7.34</v>
+      </c>
+      <c r="O169">
+        <v>6.98</v>
+      </c>
+      <c r="P169">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170">
+        <v>1.34</v>
+      </c>
+      <c r="C170">
+        <v>0.6</v>
+      </c>
+      <c r="D170">
+        <v>0.02</v>
+      </c>
+      <c r="E170">
+        <v>-0.42</v>
+      </c>
+      <c r="F170">
+        <v>1.95</v>
+      </c>
+      <c r="G170">
+        <v>3.23</v>
+      </c>
+      <c r="H170">
+        <v>1.78</v>
+      </c>
+      <c r="J170">
+        <v>7</v>
+      </c>
+      <c r="K170">
+        <v>1.59</v>
+      </c>
+      <c r="L170">
+        <v>6.03</v>
+      </c>
+      <c r="M170">
+        <v>10.32</v>
+      </c>
+      <c r="N170">
+        <v>7.34</v>
+      </c>
+      <c r="O170">
+        <v>6.99</v>
+      </c>
+      <c r="P170">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171">
+        <v>1.35</v>
+      </c>
+      <c r="C171">
+        <v>0.6</v>
+      </c>
+      <c r="D171">
+        <v>0.03</v>
+      </c>
+      <c r="E171">
+        <v>-0.41</v>
+      </c>
+      <c r="F171">
+        <v>1.95</v>
+      </c>
+      <c r="G171">
+        <v>3.25</v>
+      </c>
+      <c r="H171">
+        <v>1.8</v>
+      </c>
+      <c r="I171">
+        <v>1.79</v>
+      </c>
+      <c r="J171">
+        <v>7.03</v>
+      </c>
+      <c r="K171">
+        <v>1.6</v>
+      </c>
+      <c r="L171">
+        <v>6.03</v>
+      </c>
+      <c r="M171">
+        <v>10.37</v>
+      </c>
+      <c r="N171">
+        <v>7.34</v>
+      </c>
+      <c r="O171">
+        <v>7.01</v>
+      </c>
+      <c r="P171">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172">
+        <v>1.31</v>
+      </c>
+      <c r="C172">
+        <v>0.58</v>
+      </c>
+      <c r="D172">
+        <v>0.03</v>
+      </c>
+      <c r="E172">
+        <v>-0.42</v>
+      </c>
+      <c r="G172">
+        <v>3.22</v>
+      </c>
+      <c r="H172">
+        <v>1.78</v>
+      </c>
+      <c r="I172">
+        <v>1.79</v>
+      </c>
+      <c r="J172">
+        <v>6.98</v>
+      </c>
+      <c r="K172">
+        <v>1.6</v>
+      </c>
+      <c r="L172">
+        <v>5.99</v>
+      </c>
+      <c r="M172">
+        <v>10.27</v>
+      </c>
+      <c r="N172">
+        <v>7.28</v>
+      </c>
+      <c r="O172">
+        <v>6.98</v>
+      </c>
+      <c r="P172">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173">
+        <v>1.28</v>
+      </c>
+      <c r="C173">
+        <v>0.58</v>
+      </c>
+      <c r="D173">
+        <v>0.02</v>
+      </c>
+      <c r="E173">
+        <v>-0.44</v>
+      </c>
+      <c r="F173">
+        <v>1.92</v>
+      </c>
+      <c r="G173">
+        <v>3.2</v>
+      </c>
+      <c r="H173">
+        <v>1.77</v>
+      </c>
+      <c r="J173">
+        <v>6.98</v>
+      </c>
+      <c r="K173">
+        <v>1.58</v>
+      </c>
+      <c r="L173">
+        <v>5.96</v>
+      </c>
+      <c r="M173">
+        <v>10.31</v>
+      </c>
+      <c r="N173">
+        <v>7.26</v>
+      </c>
+      <c r="O173">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174">
+        <v>1.31</v>
+      </c>
+      <c r="C174">
+        <v>0.71</v>
+      </c>
+      <c r="D174">
+        <v>0.03</v>
+      </c>
+      <c r="E174">
+        <v>-0.38</v>
+      </c>
+      <c r="F174">
+        <v>1.93</v>
+      </c>
+      <c r="H174">
+        <v>1.82</v>
+      </c>
+      <c r="I174">
+        <v>1.79</v>
+      </c>
+      <c r="J174">
+        <v>6.98</v>
+      </c>
+      <c r="K174">
+        <v>1.57</v>
+      </c>
+      <c r="L174">
+        <v>5.94</v>
+      </c>
+      <c r="M174">
+        <v>10.5</v>
+      </c>
+      <c r="N174">
+        <v>7.22</v>
+      </c>
+      <c r="O174">
+        <v>6.97</v>
+      </c>
+      <c r="P174">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175">
+        <v>1.3</v>
+      </c>
+      <c r="C175">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D175">
+        <v>0.03</v>
+      </c>
+      <c r="E175">
+        <v>-0.37</v>
+      </c>
+      <c r="F175">
+        <v>1.95</v>
+      </c>
+      <c r="G175">
+        <v>3.2</v>
+      </c>
+      <c r="H175">
+        <v>1.87</v>
+      </c>
+      <c r="I175">
+        <v>1.78</v>
+      </c>
+      <c r="J175">
+        <v>6.97</v>
+      </c>
+      <c r="K175">
+        <v>1.6</v>
+      </c>
+      <c r="L175">
+        <v>6</v>
+      </c>
+      <c r="M175">
+        <v>10.58</v>
+      </c>
+      <c r="N175">
+        <v>7.19</v>
+      </c>
+      <c r="O175">
+        <v>6.98</v>
+      </c>
+      <c r="P175">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>1.28</v>
+      </c>
+      <c r="C176">
+        <v>0.68</v>
+      </c>
+      <c r="D176">
+        <v>0.04</v>
+      </c>
+      <c r="E176">
+        <v>-0.39</v>
+      </c>
+      <c r="F176">
+        <v>1.99</v>
+      </c>
+      <c r="G176">
+        <v>3.2</v>
+      </c>
+      <c r="H176">
+        <v>1.92</v>
+      </c>
+      <c r="I176">
+        <v>1.78</v>
+      </c>
+      <c r="J176">
+        <v>7.02</v>
+      </c>
+      <c r="K176">
+        <v>1.64</v>
+      </c>
+      <c r="L176">
+        <v>6.03</v>
+      </c>
+      <c r="M176">
+        <v>10.77</v>
+      </c>
+      <c r="N176">
+        <v>7.23</v>
+      </c>
+      <c r="O176">
+        <v>6.96</v>
+      </c>
+      <c r="P176">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>1.32</v>
+      </c>
+      <c r="C177">
+        <v>0.72</v>
+      </c>
+      <c r="D177">
+        <v>0.04</v>
+      </c>
+      <c r="E177">
+        <v>-0.36</v>
+      </c>
+      <c r="F177">
+        <v>1.97</v>
+      </c>
+      <c r="G177">
+        <v>3.19</v>
+      </c>
+      <c r="H177">
+        <v>1.98</v>
+      </c>
+      <c r="I177">
+        <v>1.79</v>
+      </c>
+      <c r="J177">
+        <v>6.99</v>
+      </c>
+      <c r="K177">
+        <v>1.62</v>
+      </c>
+      <c r="L177">
+        <v>6.04</v>
+      </c>
+      <c r="M177">
+        <v>10.87</v>
+      </c>
+      <c r="N177">
+        <v>7.25</v>
+      </c>
+      <c r="O177">
+        <v>6.98</v>
+      </c>
+      <c r="P177">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>1.32</v>
+      </c>
+      <c r="C178">
+        <v>0.71</v>
+      </c>
+      <c r="D178">
+        <v>0.05</v>
+      </c>
+      <c r="E178">
+        <v>-0.36</v>
+      </c>
+      <c r="F178">
+        <v>1.99</v>
+      </c>
+      <c r="G178">
+        <v>3.21</v>
+      </c>
+      <c r="H178">
+        <v>1.94</v>
+      </c>
+      <c r="I178">
+        <v>1.79</v>
+      </c>
+      <c r="J178">
+        <v>7</v>
+      </c>
+      <c r="K178">
+        <v>1.63</v>
+      </c>
+      <c r="M178">
+        <v>10.86</v>
+      </c>
+      <c r="O178">
+        <v>6.97</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,21 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P178"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9133,13 +9148,13 @@
         <v>1.32</v>
       </c>
       <c r="C178">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D178">
         <v>0.05</v>
       </c>
       <c r="E178">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="F178">
         <v>1.99</v>
@@ -9148,10 +9163,10 @@
         <v>3.21</v>
       </c>
       <c r="H178">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I178">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J178">
         <v>7</v>
@@ -9159,11 +9174,261 @@
       <c r="K178">
         <v>1.63</v>
       </c>
+      <c r="L178">
+        <v>6.04</v>
+      </c>
       <c r="M178">
-        <v>10.86</v>
+        <v>10.83</v>
+      </c>
+      <c r="N178">
+        <v>7.28</v>
       </c>
       <c r="O178">
-        <v>6.97</v>
+        <v>6.98</v>
+      </c>
+      <c r="P178">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179">
+        <v>1.37</v>
+      </c>
+      <c r="C179">
+        <v>0.74</v>
+      </c>
+      <c r="D179">
+        <v>0.04</v>
+      </c>
+      <c r="E179">
+        <v>-0.32</v>
+      </c>
+      <c r="F179">
+        <v>1.99</v>
+      </c>
+      <c r="G179">
+        <v>3.22</v>
+      </c>
+      <c r="H179">
+        <v>1.99</v>
+      </c>
+      <c r="I179">
+        <v>1.79</v>
+      </c>
+      <c r="J179">
+        <v>7.03</v>
+      </c>
+      <c r="K179">
+        <v>1.66</v>
+      </c>
+      <c r="L179">
+        <v>6.06</v>
+      </c>
+      <c r="N179">
+        <v>7.32</v>
+      </c>
+      <c r="O179">
+        <v>7.02</v>
+      </c>
+      <c r="P179">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180">
+        <v>1.34</v>
+      </c>
+      <c r="C180">
+        <v>0.74</v>
+      </c>
+      <c r="D180">
+        <v>0.05</v>
+      </c>
+      <c r="E180">
+        <v>-0.32</v>
+      </c>
+      <c r="F180">
+        <v>2.03</v>
+      </c>
+      <c r="G180">
+        <v>3.23</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>1.81</v>
+      </c>
+      <c r="J180">
+        <v>7.03</v>
+      </c>
+      <c r="K180">
+        <v>1.71</v>
+      </c>
+      <c r="L180">
+        <v>6.09</v>
+      </c>
+      <c r="M180">
+        <v>11.1</v>
+      </c>
+      <c r="N180">
+        <v>7.31</v>
+      </c>
+      <c r="O180">
+        <v>6.98</v>
+      </c>
+      <c r="P180">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181">
+        <v>1.3</v>
+      </c>
+      <c r="C181">
+        <v>0.74</v>
+      </c>
+      <c r="D181">
+        <v>0.04</v>
+      </c>
+      <c r="E181">
+        <v>-0.36</v>
+      </c>
+      <c r="F181">
+        <v>2.03</v>
+      </c>
+      <c r="G181">
+        <v>3.22</v>
+      </c>
+      <c r="H181">
+        <v>1.95</v>
+      </c>
+      <c r="I181">
+        <v>1.84</v>
+      </c>
+      <c r="J181">
+        <v>7.02</v>
+      </c>
+      <c r="K181">
+        <v>1.7</v>
+      </c>
+      <c r="L181">
+        <v>6.08</v>
+      </c>
+      <c r="M181">
+        <v>10.87</v>
+      </c>
+      <c r="N181">
+        <v>7.38</v>
+      </c>
+      <c r="O181">
+        <v>6.94</v>
+      </c>
+      <c r="P181">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182">
+        <v>1.34</v>
+      </c>
+      <c r="C182">
+        <v>0.76</v>
+      </c>
+      <c r="D182">
+        <v>0.05</v>
+      </c>
+      <c r="E182">
+        <v>-0.33</v>
+      </c>
+      <c r="F182">
+        <v>2.02</v>
+      </c>
+      <c r="G182">
+        <v>3.25</v>
+      </c>
+      <c r="H182">
+        <v>1.99</v>
+      </c>
+      <c r="I182">
+        <v>1.88</v>
+      </c>
+      <c r="J182">
+        <v>7.01</v>
+      </c>
+      <c r="K182">
+        <v>1.67</v>
+      </c>
+      <c r="L182">
+        <v>6.08</v>
+      </c>
+      <c r="M182">
+        <v>11.04</v>
+      </c>
+      <c r="N182">
+        <v>7.39</v>
+      </c>
+      <c r="O182">
+        <v>6.95</v>
+      </c>
+      <c r="P182">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183">
+        <v>1.33</v>
+      </c>
+      <c r="C183">
+        <v>0.74</v>
+      </c>
+      <c r="D183">
+        <v>0.05</v>
+      </c>
+      <c r="E183">
+        <v>-0.34</v>
+      </c>
+      <c r="F183">
+        <v>2.06</v>
+      </c>
+      <c r="G183">
+        <v>3.26</v>
+      </c>
+      <c r="H183">
+        <v>1.99</v>
+      </c>
+      <c r="I183">
+        <v>1.89</v>
+      </c>
+      <c r="J183">
+        <v>6.99</v>
+      </c>
+      <c r="K183">
+        <v>1.68</v>
+      </c>
+      <c r="L183">
+        <v>6.11</v>
+      </c>
+      <c r="M183">
+        <v>11.01</v>
+      </c>
+      <c r="O183">
+        <v>6.95</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Serie</t>
   </si>
@@ -608,6 +608,21 @@
   </si>
   <si>
     <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -965,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P183"/>
+  <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9401,7 +9416,7 @@
         <v>0.05</v>
       </c>
       <c r="E183">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="F183">
         <v>2.06</v>
@@ -9410,7 +9425,7 @@
         <v>3.26</v>
       </c>
       <c r="H183">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>1.89</v>
@@ -9422,13 +9437,257 @@
         <v>1.68</v>
       </c>
       <c r="L183">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="M183">
-        <v>11.01</v>
+        <v>10.96</v>
+      </c>
+      <c r="N183">
+        <v>7.42</v>
       </c>
       <c r="O183">
-        <v>6.95</v>
+        <v>6.99</v>
+      </c>
+      <c r="P183">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" t="s">
+        <v>198</v>
+      </c>
+      <c r="B184">
+        <v>1.29</v>
+      </c>
+      <c r="C184">
+        <v>0.74</v>
+      </c>
+      <c r="D184">
+        <v>0.05</v>
+      </c>
+      <c r="E184">
+        <v>-0.34</v>
+      </c>
+      <c r="F184">
+        <v>2.09</v>
+      </c>
+      <c r="G184">
+        <v>3.31</v>
+      </c>
+      <c r="H184">
+        <v>1.98</v>
+      </c>
+      <c r="I184">
+        <v>1.9</v>
+      </c>
+      <c r="J184">
+        <v>7.03</v>
+      </c>
+      <c r="K184">
+        <v>1.67</v>
+      </c>
+      <c r="L184">
+        <v>6.16</v>
+      </c>
+      <c r="M184">
+        <v>10.94</v>
+      </c>
+      <c r="N184">
+        <v>7.43</v>
+      </c>
+      <c r="O184">
+        <v>6.98</v>
+      </c>
+      <c r="P184">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>199</v>
+      </c>
+      <c r="B185">
+        <v>1.3</v>
+      </c>
+      <c r="C185">
+        <v>0.78</v>
+      </c>
+      <c r="D185">
+        <v>0.04</v>
+      </c>
+      <c r="E185">
+        <v>-0.31</v>
+      </c>
+      <c r="F185">
+        <v>2.05</v>
+      </c>
+      <c r="G185">
+        <v>3.3</v>
+      </c>
+      <c r="H185">
+        <v>1.98</v>
+      </c>
+      <c r="I185">
+        <v>1.91</v>
+      </c>
+      <c r="J185">
+        <v>7.06</v>
+      </c>
+      <c r="K185">
+        <v>1.65</v>
+      </c>
+      <c r="L185">
+        <v>6.2</v>
+      </c>
+      <c r="M185">
+        <v>11.03</v>
+      </c>
+      <c r="N185">
+        <v>7.4</v>
+      </c>
+      <c r="O185">
+        <v>6.99</v>
+      </c>
+      <c r="P185">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186">
+        <v>1.34</v>
+      </c>
+      <c r="C186">
+        <v>0.82</v>
+      </c>
+      <c r="D186">
+        <v>0.05</v>
+      </c>
+      <c r="E186">
+        <v>-0.3</v>
+      </c>
+      <c r="F186">
+        <v>2.06</v>
+      </c>
+      <c r="H186">
+        <v>2.02</v>
+      </c>
+      <c r="I186">
+        <v>1.97</v>
+      </c>
+      <c r="J186">
+        <v>7.06</v>
+      </c>
+      <c r="K186">
+        <v>1.76</v>
+      </c>
+      <c r="L186">
+        <v>6.31</v>
+      </c>
+      <c r="M186">
+        <v>11.07</v>
+      </c>
+      <c r="N186">
+        <v>7.47</v>
+      </c>
+      <c r="P186">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187">
+        <v>1.36</v>
+      </c>
+      <c r="C187">
+        <v>0.85</v>
+      </c>
+      <c r="D187">
+        <v>0.05</v>
+      </c>
+      <c r="E187">
+        <v>-0.28</v>
+      </c>
+      <c r="F187">
+        <v>2.1</v>
+      </c>
+      <c r="G187">
+        <v>3.32</v>
+      </c>
+      <c r="H187">
+        <v>2.04</v>
+      </c>
+      <c r="I187">
+        <v>1.99</v>
+      </c>
+      <c r="J187">
+        <v>7.09</v>
+      </c>
+      <c r="K187">
+        <v>1.8</v>
+      </c>
+      <c r="L187">
+        <v>6.41</v>
+      </c>
+      <c r="M187">
+        <v>11.14</v>
+      </c>
+      <c r="N187">
+        <v>7.53</v>
+      </c>
+      <c r="O187">
+        <v>7.04</v>
+      </c>
+      <c r="P187">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188">
+        <v>1.31</v>
+      </c>
+      <c r="C188">
+        <v>0.79</v>
+      </c>
+      <c r="D188">
+        <v>0.05</v>
+      </c>
+      <c r="E188">
+        <v>-0.33</v>
+      </c>
+      <c r="G188">
+        <v>3.35</v>
+      </c>
+      <c r="H188">
+        <v>1.99</v>
+      </c>
+      <c r="I188">
+        <v>1.98</v>
+      </c>
+      <c r="J188">
+        <v>7.17</v>
+      </c>
+      <c r="K188">
+        <v>1.79</v>
+      </c>
+      <c r="L188">
+        <v>6.42</v>
+      </c>
+      <c r="M188">
+        <v>11.2</v>
+      </c>
+      <c r="O188">
+        <v>7.08</v>
+      </c>
+      <c r="P188">
+        <v>6.36</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Serie</t>
   </si>
@@ -623,6 +623,21 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
   </si>
 </sst>
 </file>
@@ -980,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P188"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9660,7 +9675,7 @@
         <v>0.05</v>
       </c>
       <c r="E188">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="G188">
         <v>3.35</v>
@@ -9672,22 +9687,257 @@
         <v>1.98</v>
       </c>
       <c r="J188">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="K188">
         <v>1.79</v>
       </c>
       <c r="L188">
+        <v>6.46</v>
+      </c>
+      <c r="M188">
+        <v>10.98</v>
+      </c>
+      <c r="N188">
+        <v>7.63</v>
+      </c>
+      <c r="O188">
+        <v>7.11</v>
+      </c>
+      <c r="P188">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" t="s">
+        <v>203</v>
+      </c>
+      <c r="B189">
+        <v>1.32</v>
+      </c>
+      <c r="C189">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D189">
+        <v>0.04</v>
+      </c>
+      <c r="E189">
+        <v>-0.32</v>
+      </c>
+      <c r="G189">
+        <v>3.36</v>
+      </c>
+      <c r="H189">
+        <v>1.96</v>
+      </c>
+      <c r="I189">
+        <v>1.99</v>
+      </c>
+      <c r="J189">
+        <v>7.15</v>
+      </c>
+      <c r="K189">
+        <v>1.78</v>
+      </c>
+      <c r="L189">
+        <v>6.37</v>
+      </c>
+      <c r="M189">
+        <v>10.83</v>
+      </c>
+      <c r="N189">
+        <v>7.62</v>
+      </c>
+      <c r="O189">
+        <v>7.13</v>
+      </c>
+      <c r="P189">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190">
+        <v>1.3</v>
+      </c>
+      <c r="C190">
+        <v>0.8</v>
+      </c>
+      <c r="D190">
+        <v>0.04</v>
+      </c>
+      <c r="E190">
+        <v>-0.32</v>
+      </c>
+      <c r="G190">
+        <v>3.35</v>
+      </c>
+      <c r="H190">
+        <v>1.96</v>
+      </c>
+      <c r="I190">
+        <v>1.94</v>
+      </c>
+      <c r="J190">
+        <v>7.15</v>
+      </c>
+      <c r="K190">
+        <v>1.79</v>
+      </c>
+      <c r="L190">
         <v>6.42</v>
       </c>
-      <c r="M188">
-        <v>11.2</v>
-      </c>
-      <c r="O188">
-        <v>7.08</v>
-      </c>
-      <c r="P188">
-        <v>6.36</v>
+      <c r="M190">
+        <v>10.65</v>
+      </c>
+      <c r="N190">
+        <v>7.64</v>
+      </c>
+      <c r="O190">
+        <v>7.12</v>
+      </c>
+      <c r="P190">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>205</v>
+      </c>
+      <c r="B191">
+        <v>1.43</v>
+      </c>
+      <c r="C191">
+        <v>0.91</v>
+      </c>
+      <c r="D191">
+        <v>0.04</v>
+      </c>
+      <c r="E191">
+        <v>-0.26</v>
+      </c>
+      <c r="F191">
+        <v>2.13</v>
+      </c>
+      <c r="G191">
+        <v>3.36</v>
+      </c>
+      <c r="H191">
+        <v>2.02</v>
+      </c>
+      <c r="I191">
+        <v>1.94</v>
+      </c>
+      <c r="J191">
+        <v>7.22</v>
+      </c>
+      <c r="K191">
+        <v>1.78</v>
+      </c>
+      <c r="L191">
+        <v>6.61</v>
+      </c>
+      <c r="M191">
+        <v>10.89</v>
+      </c>
+      <c r="N191">
+        <v>7.69</v>
+      </c>
+      <c r="O191">
+        <v>7.16</v>
+      </c>
+      <c r="P191">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" t="s">
+        <v>206</v>
+      </c>
+      <c r="B192">
+        <v>1.45</v>
+      </c>
+      <c r="C192">
+        <v>0.92</v>
+      </c>
+      <c r="D192">
+        <v>0.06</v>
+      </c>
+      <c r="E192">
+        <v>-0.23</v>
+      </c>
+      <c r="F192">
+        <v>2.18</v>
+      </c>
+      <c r="G192">
+        <v>3.41</v>
+      </c>
+      <c r="H192">
+        <v>2.04</v>
+      </c>
+      <c r="I192">
+        <v>1.96</v>
+      </c>
+      <c r="J192">
+        <v>7.29</v>
+      </c>
+      <c r="L192">
+        <v>6.77</v>
+      </c>
+      <c r="M192">
+        <v>10.95</v>
+      </c>
+      <c r="N192">
+        <v>7.74</v>
+      </c>
+      <c r="O192">
+        <v>7.19</v>
+      </c>
+      <c r="P192">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193">
+        <v>1.49</v>
+      </c>
+      <c r="C193">
+        <v>0.95</v>
+      </c>
+      <c r="D193">
+        <v>0.06</v>
+      </c>
+      <c r="E193">
+        <v>-0.21</v>
+      </c>
+      <c r="G193">
+        <v>3.43</v>
+      </c>
+      <c r="H193">
+        <v>2.06</v>
+      </c>
+      <c r="I193">
+        <v>1.97</v>
+      </c>
+      <c r="J193">
+        <v>7.32</v>
+      </c>
+      <c r="K193">
+        <v>1.82</v>
+      </c>
+      <c r="L193">
+        <v>6.75</v>
+      </c>
+      <c r="O193">
+        <v>7.16</v>
+      </c>
+      <c r="P193">
+        <v>6.29</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -638,6 +638,21 @@
   </si>
   <si>
     <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9913,16 +9928,16 @@
         <v>0.06</v>
       </c>
       <c r="E193">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="G193">
         <v>3.43</v>
       </c>
       <c r="H193">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="I193">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="J193">
         <v>7.32</v>
@@ -9931,13 +9946,254 @@
         <v>1.82</v>
       </c>
       <c r="L193">
-        <v>6.75</v>
+        <v>6.86</v>
+      </c>
+      <c r="M193">
+        <v>11.08</v>
+      </c>
+      <c r="N193">
+        <v>7.72</v>
       </c>
       <c r="O193">
-        <v>7.16</v>
+        <v>7.24</v>
       </c>
       <c r="P193">
-        <v>6.29</v>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194">
+        <v>1.54</v>
+      </c>
+      <c r="C194">
+        <v>0.99</v>
+      </c>
+      <c r="D194">
+        <v>0.09</v>
+      </c>
+      <c r="E194">
+        <v>-0.2</v>
+      </c>
+      <c r="G194">
+        <v>3.45</v>
+      </c>
+      <c r="H194">
+        <v>2.12</v>
+      </c>
+      <c r="I194">
+        <v>1.99</v>
+      </c>
+      <c r="J194">
+        <v>7.31</v>
+      </c>
+      <c r="K194">
+        <v>1.83</v>
+      </c>
+      <c r="L194">
+        <v>6.93</v>
+      </c>
+      <c r="M194">
+        <v>11.12</v>
+      </c>
+      <c r="N194">
+        <v>7.71</v>
+      </c>
+      <c r="O194">
+        <v>7.33</v>
+      </c>
+      <c r="P194">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>209</v>
+      </c>
+      <c r="B195">
+        <v>1.52</v>
+      </c>
+      <c r="C195">
+        <v>0.99</v>
+      </c>
+      <c r="D195">
+        <v>0.08</v>
+      </c>
+      <c r="E195">
+        <v>-0.21</v>
+      </c>
+      <c r="F195">
+        <v>2.27</v>
+      </c>
+      <c r="G195">
+        <v>3.42</v>
+      </c>
+      <c r="H195">
+        <v>2.15</v>
+      </c>
+      <c r="I195">
+        <v>1.98</v>
+      </c>
+      <c r="J195">
+        <v>7.29</v>
+      </c>
+      <c r="K195">
+        <v>1.83</v>
+      </c>
+      <c r="L195">
+        <v>6.79</v>
+      </c>
+      <c r="M195">
+        <v>11.07</v>
+      </c>
+      <c r="N195">
+        <v>7.68</v>
+      </c>
+      <c r="O195">
+        <v>7.36</v>
+      </c>
+      <c r="P195">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196">
+        <v>1.49</v>
+      </c>
+      <c r="C196">
+        <v>1.02</v>
+      </c>
+      <c r="D196">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E196">
+        <v>-0.2</v>
+      </c>
+      <c r="F196">
+        <v>2.25</v>
+      </c>
+      <c r="G196">
+        <v>3.38</v>
+      </c>
+      <c r="H196">
+        <v>2.16</v>
+      </c>
+      <c r="I196">
+        <v>2.06</v>
+      </c>
+      <c r="J196">
+        <v>7.32</v>
+      </c>
+      <c r="K196">
+        <v>1.86</v>
+      </c>
+      <c r="L196">
+        <v>6.79</v>
+      </c>
+      <c r="M196">
+        <v>11.11</v>
+      </c>
+      <c r="N196">
+        <v>7.66</v>
+      </c>
+      <c r="O196">
+        <v>7.37</v>
+      </c>
+      <c r="P196">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" t="s">
+        <v>211</v>
+      </c>
+      <c r="B197">
+        <v>1.46</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>0.06</v>
+      </c>
+      <c r="E197">
+        <v>-0.22</v>
+      </c>
+      <c r="G197">
+        <v>3.38</v>
+      </c>
+      <c r="H197">
+        <v>2.21</v>
+      </c>
+      <c r="I197">
+        <v>2.08</v>
+      </c>
+      <c r="J197">
+        <v>7.35</v>
+      </c>
+      <c r="K197">
+        <v>1.89</v>
+      </c>
+      <c r="L197">
+        <v>6.82</v>
+      </c>
+      <c r="M197">
+        <v>10.99</v>
+      </c>
+      <c r="N197">
+        <v>7.64</v>
+      </c>
+      <c r="O197">
+        <v>7.4</v>
+      </c>
+      <c r="P197">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" t="s">
+        <v>212</v>
+      </c>
+      <c r="B198">
+        <v>1.5</v>
+      </c>
+      <c r="C198">
+        <v>1.02</v>
+      </c>
+      <c r="D198">
+        <v>0.05</v>
+      </c>
+      <c r="E198">
+        <v>-0.21</v>
+      </c>
+      <c r="G198">
+        <v>3.38</v>
+      </c>
+      <c r="H198">
+        <v>2.26</v>
+      </c>
+      <c r="I198">
+        <v>2.11</v>
+      </c>
+      <c r="J198">
+        <v>7.42</v>
+      </c>
+      <c r="K198">
+        <v>1.88</v>
+      </c>
+      <c r="L198">
+        <v>6.74</v>
+      </c>
+      <c r="O198">
+        <v>7.39</v>
+      </c>
+      <c r="P198">
+        <v>6.37</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,24 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10160,10 +10178,10 @@
         <v>212</v>
       </c>
       <c r="B198">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="C198">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D198">
         <v>0.05</v>
@@ -10178,22 +10196,301 @@
         <v>2.26</v>
       </c>
       <c r="I198">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="J198">
-        <v>7.42</v>
+        <v>7.45</v>
       </c>
       <c r="K198">
         <v>1.88</v>
       </c>
       <c r="L198">
+        <v>6.78</v>
+      </c>
+      <c r="M198">
+        <v>11.08</v>
+      </c>
+      <c r="N198">
+        <v>7.72</v>
+      </c>
+      <c r="O198">
+        <v>7.48</v>
+      </c>
+      <c r="P198">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199">
+        <v>1.53</v>
+      </c>
+      <c r="C199">
+        <v>1.08</v>
+      </c>
+      <c r="D199">
+        <v>0.06</v>
+      </c>
+      <c r="E199">
+        <v>-0.19</v>
+      </c>
+      <c r="F199">
+        <v>2.33</v>
+      </c>
+      <c r="G199">
+        <v>3.44</v>
+      </c>
+      <c r="H199">
+        <v>2.25</v>
+      </c>
+      <c r="I199">
+        <v>2.1</v>
+      </c>
+      <c r="J199">
+        <v>7.55</v>
+      </c>
+      <c r="K199">
+        <v>1.88</v>
+      </c>
+      <c r="L199">
+        <v>6.8</v>
+      </c>
+      <c r="M199">
+        <v>11.14</v>
+      </c>
+      <c r="O199">
+        <v>7.56</v>
+      </c>
+      <c r="P199">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200">
+        <v>1.52</v>
+      </c>
+      <c r="C200">
+        <v>1.07</v>
+      </c>
+      <c r="D200">
+        <v>0.08</v>
+      </c>
+      <c r="E200">
+        <v>-0.18</v>
+      </c>
+      <c r="F200">
+        <v>2.42</v>
+      </c>
+      <c r="G200">
+        <v>3.57</v>
+      </c>
+      <c r="H200">
+        <v>2.38</v>
+      </c>
+      <c r="I200">
+        <v>2.09</v>
+      </c>
+      <c r="J200">
+        <v>7.58</v>
+      </c>
+      <c r="K200">
+        <v>1.89</v>
+      </c>
+      <c r="L200">
+        <v>6.84</v>
+      </c>
+      <c r="M200">
+        <v>11.04</v>
+      </c>
+      <c r="O200">
+        <v>7.54</v>
+      </c>
+      <c r="P200">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201">
+        <v>1.57</v>
+      </c>
+      <c r="C201">
+        <v>1.08</v>
+      </c>
+      <c r="D201">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E201">
+        <v>-0.19</v>
+      </c>
+      <c r="F201">
+        <v>2.4</v>
+      </c>
+      <c r="G201">
+        <v>3.58</v>
+      </c>
+      <c r="H201">
+        <v>2.41</v>
+      </c>
+      <c r="I201">
+        <v>2.08</v>
+      </c>
+      <c r="J201">
+        <v>7.56</v>
+      </c>
+      <c r="K201">
+        <v>1.92</v>
+      </c>
+      <c r="L201">
         <v>6.74</v>
       </c>
-      <c r="O198">
-        <v>7.39</v>
-      </c>
-      <c r="P198">
-        <v>6.37</v>
+      <c r="M201">
+        <v>11.09</v>
+      </c>
+      <c r="O201">
+        <v>7.5</v>
+      </c>
+      <c r="P201">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202">
+        <v>1.61</v>
+      </c>
+      <c r="C202">
+        <v>1.16</v>
+      </c>
+      <c r="D202">
+        <v>0.09</v>
+      </c>
+      <c r="E202">
+        <v>-0.15</v>
+      </c>
+      <c r="F202">
+        <v>2.39</v>
+      </c>
+      <c r="G202">
+        <v>3.62</v>
+      </c>
+      <c r="H202">
+        <v>2.42</v>
+      </c>
+      <c r="I202">
+        <v>2.08</v>
+      </c>
+      <c r="J202">
+        <v>7.5</v>
+      </c>
+      <c r="K202">
+        <v>1.94</v>
+      </c>
+      <c r="L202">
+        <v>6.84</v>
+      </c>
+      <c r="M202">
+        <v>10.88</v>
+      </c>
+      <c r="O202">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203">
+        <v>1.61</v>
+      </c>
+      <c r="C203">
+        <v>1.19</v>
+      </c>
+      <c r="D203">
+        <v>0.09</v>
+      </c>
+      <c r="E203">
+        <v>-0.12</v>
+      </c>
+      <c r="G203">
+        <v>3.67</v>
+      </c>
+      <c r="H203">
+        <v>2.52</v>
+      </c>
+      <c r="I203">
+        <v>2.17</v>
+      </c>
+      <c r="J203">
+        <v>7.53</v>
+      </c>
+      <c r="K203">
+        <v>1.97</v>
+      </c>
+      <c r="L203">
+        <v>6.84</v>
+      </c>
+      <c r="M203">
+        <v>11</v>
+      </c>
+      <c r="O203">
+        <v>7.5</v>
+      </c>
+      <c r="P203">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204">
+        <v>1.61</v>
+      </c>
+      <c r="C204">
+        <v>1.17</v>
+      </c>
+      <c r="D204">
+        <v>0.09</v>
+      </c>
+      <c r="E204">
+        <v>-0.12</v>
+      </c>
+      <c r="F204">
+        <v>2.45</v>
+      </c>
+      <c r="G204">
+        <v>3.61</v>
+      </c>
+      <c r="H204">
+        <v>2.63</v>
+      </c>
+      <c r="I204">
+        <v>2.27</v>
+      </c>
+      <c r="J204">
+        <v>7.55</v>
+      </c>
+      <c r="K204">
+        <v>1.99</v>
+      </c>
+      <c r="L204">
+        <v>6.84</v>
+      </c>
+      <c r="O204">
+        <v>7.49</v>
+      </c>
+      <c r="P204">
+        <v>5.97</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,33 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10454,16 +10481,16 @@
         <v>218</v>
       </c>
       <c r="B204">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="C204">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="D204">
         <v>0.09</v>
       </c>
       <c r="E204">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="F204">
         <v>2.45</v>
@@ -10472,25 +10499,442 @@
         <v>3.61</v>
       </c>
       <c r="H204">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="I204">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J204">
-        <v>7.55</v>
+        <v>7.56</v>
       </c>
       <c r="K204">
         <v>1.99</v>
       </c>
       <c r="L204">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="O204">
+        <v>7.45</v>
+      </c>
+      <c r="P204">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205">
+        <v>1.54</v>
+      </c>
+      <c r="C205">
+        <v>1.09</v>
+      </c>
+      <c r="D205">
+        <v>0.09</v>
+      </c>
+      <c r="E205">
+        <v>-0.13</v>
+      </c>
+      <c r="F205">
+        <v>2.41</v>
+      </c>
+      <c r="G205">
+        <v>3.59</v>
+      </c>
+      <c r="H205">
+        <v>2.63</v>
+      </c>
+      <c r="I205">
+        <v>2.31</v>
+      </c>
+      <c r="J205">
         <v>7.49</v>
       </c>
-      <c r="P204">
-        <v>5.97</v>
+      <c r="L205">
+        <v>6.88</v>
+      </c>
+      <c r="M205">
+        <v>10.89</v>
+      </c>
+      <c r="O205">
+        <v>7.41</v>
+      </c>
+      <c r="P205">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206">
+        <v>1.51</v>
+      </c>
+      <c r="C206">
+        <v>1.04</v>
+      </c>
+      <c r="D206">
+        <v>0.08</v>
+      </c>
+      <c r="E206">
+        <v>-0.19</v>
+      </c>
+      <c r="F206">
+        <v>2.37</v>
+      </c>
+      <c r="G206">
+        <v>3.54</v>
+      </c>
+      <c r="H206">
+        <v>2.52</v>
+      </c>
+      <c r="I206">
+        <v>2.32</v>
+      </c>
+      <c r="J206">
+        <v>7.47</v>
+      </c>
+      <c r="K206">
+        <v>1.97</v>
+      </c>
+      <c r="L206">
+        <v>6.95</v>
+      </c>
+      <c r="M206">
+        <v>10.93</v>
+      </c>
+      <c r="O206">
+        <v>7.41</v>
+      </c>
+      <c r="P206">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207">
+        <v>1.57</v>
+      </c>
+      <c r="C207">
+        <v>1.1</v>
+      </c>
+      <c r="D207">
+        <v>0.08</v>
+      </c>
+      <c r="E207">
+        <v>-0.17</v>
+      </c>
+      <c r="F207">
+        <v>2.39</v>
+      </c>
+      <c r="G207">
+        <v>3.54</v>
+      </c>
+      <c r="H207">
+        <v>2.58</v>
+      </c>
+      <c r="I207">
+        <v>2.38</v>
+      </c>
+      <c r="J207">
+        <v>7.49</v>
+      </c>
+      <c r="K207">
+        <v>1.98</v>
+      </c>
+      <c r="L207">
+        <v>6.99</v>
+      </c>
+      <c r="M207">
+        <v>11.06</v>
+      </c>
+      <c r="O207">
+        <v>7.44</v>
+      </c>
+      <c r="P207">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208">
+        <v>1.6</v>
+      </c>
+      <c r="C208">
+        <v>1.13</v>
+      </c>
+      <c r="D208">
+        <v>0.1</v>
+      </c>
+      <c r="E208">
+        <v>-0.15</v>
+      </c>
+      <c r="F208">
+        <v>2.45</v>
+      </c>
+      <c r="G208">
+        <v>3.59</v>
+      </c>
+      <c r="H208">
+        <v>2.69</v>
+      </c>
+      <c r="I208">
+        <v>2.48</v>
+      </c>
+      <c r="J208">
+        <v>7.58</v>
+      </c>
+      <c r="K208">
+        <v>2.02</v>
+      </c>
+      <c r="L208">
+        <v>7.09</v>
+      </c>
+      <c r="M208">
+        <v>11.18</v>
+      </c>
+      <c r="O208">
+        <v>7.48</v>
+      </c>
+      <c r="P208">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
+      <c r="A209" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209">
+        <v>1.64</v>
+      </c>
+      <c r="C209">
+        <v>1.17</v>
+      </c>
+      <c r="D209">
+        <v>0.09</v>
+      </c>
+      <c r="E209">
+        <v>-0.11</v>
+      </c>
+      <c r="F209">
+        <v>2.42</v>
+      </c>
+      <c r="H209">
+        <v>2.69</v>
+      </c>
+      <c r="I209">
+        <v>2.53</v>
+      </c>
+      <c r="J209">
+        <v>7.57</v>
+      </c>
+      <c r="K209">
+        <v>2.01</v>
+      </c>
+      <c r="L209">
+        <v>7.07</v>
+      </c>
+      <c r="M209">
+        <v>11.52</v>
+      </c>
+      <c r="O209">
+        <v>7.45</v>
+      </c>
+      <c r="P209">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
+      <c r="A210" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210">
+        <v>1.66</v>
+      </c>
+      <c r="C210">
+        <v>1.15</v>
+      </c>
+      <c r="D210">
+        <v>0.09</v>
+      </c>
+      <c r="E210">
+        <v>-0.13</v>
+      </c>
+      <c r="F210">
+        <v>2.42</v>
+      </c>
+      <c r="G210">
+        <v>3.6</v>
+      </c>
+      <c r="H210">
+        <v>2.67</v>
+      </c>
+      <c r="I210">
+        <v>2.52</v>
+      </c>
+      <c r="J210">
+        <v>7.6</v>
+      </c>
+      <c r="K210">
+        <v>2.06</v>
+      </c>
+      <c r="L210">
+        <v>7.02</v>
+      </c>
+      <c r="M210">
+        <v>11.86</v>
+      </c>
+      <c r="O210">
+        <v>7.47</v>
+      </c>
+      <c r="P210">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
+      <c r="A211" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211">
+        <v>1.7</v>
+      </c>
+      <c r="C211">
+        <v>1.2</v>
+      </c>
+      <c r="D211">
+        <v>0.09</v>
+      </c>
+      <c r="E211">
+        <v>-0.1</v>
+      </c>
+      <c r="F211">
+        <v>2.42</v>
+      </c>
+      <c r="G211">
+        <v>3.6</v>
+      </c>
+      <c r="H211">
+        <v>2.71</v>
+      </c>
+      <c r="I211">
+        <v>2.51</v>
+      </c>
+      <c r="J211">
+        <v>7.66</v>
+      </c>
+      <c r="K211">
+        <v>2.03</v>
+      </c>
+      <c r="L211">
+        <v>7.15</v>
+      </c>
+      <c r="M211">
+        <v>12.01</v>
+      </c>
+      <c r="N211">
+        <v>7.83</v>
+      </c>
+      <c r="O211">
+        <v>7.54</v>
+      </c>
+      <c r="P211">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
+      <c r="A212" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212">
+        <v>1.63</v>
+      </c>
+      <c r="C212">
+        <v>1.14</v>
+      </c>
+      <c r="D212">
+        <v>0.1</v>
+      </c>
+      <c r="E212">
+        <v>-0.11</v>
+      </c>
+      <c r="F212">
+        <v>2.44</v>
+      </c>
+      <c r="G212">
+        <v>3.62</v>
+      </c>
+      <c r="H212">
+        <v>2.77</v>
+      </c>
+      <c r="I212">
+        <v>2.55</v>
+      </c>
+      <c r="J212">
+        <v>7.86</v>
+      </c>
+      <c r="L212">
+        <v>7.2</v>
+      </c>
+      <c r="M212">
+        <v>12.43</v>
+      </c>
+      <c r="N212">
+        <v>7.83</v>
+      </c>
+      <c r="O212">
+        <v>7.58</v>
+      </c>
+      <c r="P212">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" t="s">
+        <v>227</v>
+      </c>
+      <c r="B213">
+        <v>1.66</v>
+      </c>
+      <c r="C213">
+        <v>1.16</v>
+      </c>
+      <c r="D213">
+        <v>0.11</v>
+      </c>
+      <c r="E213">
+        <v>-0.1</v>
+      </c>
+      <c r="F213">
+        <v>2.49</v>
+      </c>
+      <c r="G213">
+        <v>3.61</v>
+      </c>
+      <c r="H213">
+        <v>2.86</v>
+      </c>
+      <c r="I213">
+        <v>2.55</v>
+      </c>
+      <c r="J213">
+        <v>8.01</v>
+      </c>
+      <c r="K213">
+        <v>1.96</v>
+      </c>
+      <c r="L213">
+        <v>7.24</v>
+      </c>
+      <c r="O213">
+        <v>7.55</v>
+      </c>
+      <c r="P213">
+        <v>5.89</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,24 @@
   </si>
   <si>
     <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:P219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10898,16 +10916,16 @@
         <v>227</v>
       </c>
       <c r="B213">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="C213">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="D213">
         <v>0.11</v>
       </c>
       <c r="E213">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="F213">
         <v>2.49</v>
@@ -10922,19 +10940,292 @@
         <v>2.55</v>
       </c>
       <c r="J213">
-        <v>8.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K213">
         <v>1.96</v>
       </c>
       <c r="L213">
-        <v>7.24</v>
+        <v>7.12</v>
+      </c>
+      <c r="M213">
+        <v>12.03</v>
+      </c>
+      <c r="N213">
+        <v>7.9</v>
       </c>
       <c r="O213">
-        <v>7.55</v>
+        <v>7.56</v>
       </c>
       <c r="P213">
         <v>5.89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214">
+        <v>1.61</v>
+      </c>
+      <c r="C214">
+        <v>1.11</v>
+      </c>
+      <c r="D214">
+        <v>0.11</v>
+      </c>
+      <c r="E214">
+        <v>-0.12</v>
+      </c>
+      <c r="F214">
+        <v>2.49</v>
+      </c>
+      <c r="G214">
+        <v>3.59</v>
+      </c>
+      <c r="H214">
+        <v>2.87</v>
+      </c>
+      <c r="I214">
+        <v>2.56</v>
+      </c>
+      <c r="J214">
+        <v>8.08</v>
+      </c>
+      <c r="K214">
+        <v>1.96</v>
+      </c>
+      <c r="L214">
+        <v>6.96</v>
+      </c>
+      <c r="M214">
+        <v>12</v>
+      </c>
+      <c r="O214">
+        <v>7.57</v>
+      </c>
+      <c r="P214">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16">
+      <c r="A215" t="s">
+        <v>229</v>
+      </c>
+      <c r="B215">
+        <v>1.54</v>
+      </c>
+      <c r="C215">
+        <v>0.98</v>
+      </c>
+      <c r="D215">
+        <v>0.1</v>
+      </c>
+      <c r="E215">
+        <v>-0.18</v>
+      </c>
+      <c r="F215">
+        <v>2.55</v>
+      </c>
+      <c r="G215">
+        <v>3.58</v>
+      </c>
+      <c r="H215">
+        <v>2.81</v>
+      </c>
+      <c r="I215">
+        <v>2.58</v>
+      </c>
+      <c r="J215">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="K215">
+        <v>1.94</v>
+      </c>
+      <c r="L215">
+        <v>6.87</v>
+      </c>
+      <c r="M215">
+        <v>11.9</v>
+      </c>
+      <c r="N215">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="O215">
+        <v>7.53</v>
+      </c>
+      <c r="P215">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16">
+      <c r="A216" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216">
+        <v>1.58</v>
+      </c>
+      <c r="C216">
+        <v>1.01</v>
+      </c>
+      <c r="D216">
+        <v>0.09</v>
+      </c>
+      <c r="E216">
+        <v>-0.14</v>
+      </c>
+      <c r="F216">
+        <v>2.46</v>
+      </c>
+      <c r="G216">
+        <v>3.57</v>
+      </c>
+      <c r="H216">
+        <v>2.85</v>
+      </c>
+      <c r="J216">
+        <v>8.19</v>
+      </c>
+      <c r="K216">
+        <v>1.92</v>
+      </c>
+      <c r="L216">
+        <v>6.89</v>
+      </c>
+      <c r="M216">
+        <v>12.42</v>
+      </c>
+      <c r="O216">
+        <v>7.54</v>
+      </c>
+      <c r="P216">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
+      <c r="A217" t="s">
+        <v>231</v>
+      </c>
+      <c r="B217">
+        <v>1.56</v>
+      </c>
+      <c r="C217">
+        <v>1.03</v>
+      </c>
+      <c r="D217">
+        <v>0.1</v>
+      </c>
+      <c r="E217">
+        <v>-0.11</v>
+      </c>
+      <c r="F217">
+        <v>2.6</v>
+      </c>
+      <c r="G217">
+        <v>3.6</v>
+      </c>
+      <c r="H217">
+        <v>2.82</v>
+      </c>
+      <c r="I217">
+        <v>2.6</v>
+      </c>
+      <c r="J217">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K217">
+        <v>1.98</v>
+      </c>
+      <c r="L217">
+        <v>6.92</v>
+      </c>
+      <c r="M217">
+        <v>12.22</v>
+      </c>
+      <c r="O217">
+        <v>7.49</v>
+      </c>
+      <c r="P217">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" t="s">
+        <v>232</v>
+      </c>
+      <c r="B218">
+        <v>1.56</v>
+      </c>
+      <c r="C218">
+        <v>1.06</v>
+      </c>
+      <c r="D218">
+        <v>0.1</v>
+      </c>
+      <c r="E218">
+        <v>-0.1</v>
+      </c>
+      <c r="F218">
+        <v>2.54</v>
+      </c>
+      <c r="G218">
+        <v>3.63</v>
+      </c>
+      <c r="I218">
+        <v>2.59</v>
+      </c>
+      <c r="J218">
+        <v>8.35</v>
+      </c>
+      <c r="K218">
+        <v>1.99</v>
+      </c>
+      <c r="L218">
+        <v>6.86</v>
+      </c>
+      <c r="M218">
+        <v>12.35</v>
+      </c>
+      <c r="O218">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="A219" t="s">
+        <v>233</v>
+      </c>
+      <c r="B219">
+        <v>1.56</v>
+      </c>
+      <c r="C219">
+        <v>1.05</v>
+      </c>
+      <c r="D219">
+        <v>0.08</v>
+      </c>
+      <c r="E219">
+        <v>-0.15</v>
+      </c>
+      <c r="F219">
+        <v>2.49</v>
+      </c>
+      <c r="G219">
+        <v>3.63</v>
+      </c>
+      <c r="H219">
+        <v>2.85</v>
+      </c>
+      <c r="I219">
+        <v>2.56</v>
+      </c>
+      <c r="J219">
+        <v>8.31</v>
+      </c>
+      <c r="K219">
+        <v>1.95</v>
+      </c>
+      <c r="L219">
+        <v>6.72</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,18 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P219"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11195,16 +11207,16 @@
         <v>233</v>
       </c>
       <c r="B219">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="C219">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D219">
         <v>0.08</v>
       </c>
       <c r="E219">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="F219">
         <v>2.49</v>
@@ -11216,16 +11228,198 @@
         <v>2.85</v>
       </c>
       <c r="I219">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J219">
-        <v>8.31</v>
+        <v>8.32</v>
       </c>
       <c r="K219">
         <v>1.95</v>
       </c>
       <c r="L219">
-        <v>6.72</v>
+        <v>6.76</v>
+      </c>
+      <c r="P219">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
+      <c r="A220" t="s">
+        <v>234</v>
+      </c>
+      <c r="B220">
+        <v>1.61</v>
+      </c>
+      <c r="C220">
+        <v>1.07</v>
+      </c>
+      <c r="D220">
+        <v>0.08</v>
+      </c>
+      <c r="E220">
+        <v>-0.17</v>
+      </c>
+      <c r="F220">
+        <v>2.5</v>
+      </c>
+      <c r="G220">
+        <v>3.62</v>
+      </c>
+      <c r="H220">
+        <v>2.98</v>
+      </c>
+      <c r="I220">
+        <v>2.51</v>
+      </c>
+      <c r="J220">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K220">
+        <v>1.93</v>
+      </c>
+      <c r="L220">
+        <v>6.7</v>
+      </c>
+      <c r="M220">
+        <v>11.84</v>
+      </c>
+      <c r="O220">
+        <v>7.54</v>
+      </c>
+      <c r="P220">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="A221" t="s">
+        <v>235</v>
+      </c>
+      <c r="B221">
+        <v>1.53</v>
+      </c>
+      <c r="C221">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D221">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E221">
+        <v>-0.22</v>
+      </c>
+      <c r="F221">
+        <v>2.45</v>
+      </c>
+      <c r="H221">
+        <v>2.9</v>
+      </c>
+      <c r="I221">
+        <v>2.65</v>
+      </c>
+      <c r="K221">
+        <v>1.95</v>
+      </c>
+      <c r="L221">
+        <v>6.55</v>
+      </c>
+      <c r="M221">
+        <v>11.97</v>
+      </c>
+      <c r="O221">
+        <v>7.45</v>
+      </c>
+      <c r="P221">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="A222" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222">
+        <v>1.45</v>
+      </c>
+      <c r="C222">
+        <v>0.84</v>
+      </c>
+      <c r="D222">
+        <v>0.06</v>
+      </c>
+      <c r="E222">
+        <v>-0.28</v>
+      </c>
+      <c r="F222">
+        <v>2.38</v>
+      </c>
+      <c r="G222">
+        <v>3.56</v>
+      </c>
+      <c r="H222">
+        <v>2.85</v>
+      </c>
+      <c r="I222">
+        <v>2.64</v>
+      </c>
+      <c r="K222">
+        <v>1.93</v>
+      </c>
+      <c r="L222">
+        <v>6.41</v>
+      </c>
+      <c r="M222">
+        <v>11.81</v>
+      </c>
+      <c r="O222">
+        <v>7.3</v>
+      </c>
+      <c r="P222">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
+      <c r="A223" t="s">
+        <v>237</v>
+      </c>
+      <c r="B223">
+        <v>1.48</v>
+      </c>
+      <c r="C223">
+        <v>0.87</v>
+      </c>
+      <c r="D223">
+        <v>0.06</v>
+      </c>
+      <c r="E223">
+        <v>-0.26</v>
+      </c>
+      <c r="F223">
+        <v>2.37</v>
+      </c>
+      <c r="G223">
+        <v>3.51</v>
+      </c>
+      <c r="H223">
+        <v>2.91</v>
+      </c>
+      <c r="I223">
+        <v>2.61</v>
+      </c>
+      <c r="J223">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K223">
+        <v>1.9</v>
+      </c>
+      <c r="L223">
+        <v>6.32</v>
+      </c>
+      <c r="M223">
+        <v>11.95</v>
+      </c>
+      <c r="O223">
+        <v>7.25</v>
+      </c>
+      <c r="P223">
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
